--- a/Route.xlsx
+++ b/Route.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d2railcivlisltd-my.sharepoint.com/personal/david_rickmann_d2rail_co_uk/Documents/Projects/80Days/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="13_ncr:1_{E48794A5-E8B5-4BD2-A2BE-C96D001FDD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{186639D1-0012-4AA8-8928-C837355C1681}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{E48794A5-E8B5-4BD2-A2BE-C96D001FDD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B851362-1E5C-4A55-B832-E278F8112E46}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAFDBC15-7F1C-44F2-9DD3-3F482999A76C}"/>
+    <workbookView xWindow="9168" yWindow="168" windowWidth="12672" windowHeight="12192" xr2:uid="{AAFDBC15-7F1C-44F2-9DD3-3F482999A76C}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="313">
   <si>
     <t>LocationName</t>
   </si>
@@ -746,9 +746,6 @@
     <t>_grrB}nh{L[Bc@Ii@SOIOAw@e@GMYT]@cGmAqAK{A]qLoEUCc@Uq@g@sBqA[W{@w@i@q@c@k@BKGQs@_Ag@aAUk@Sq@KUYo@g@iBk@gCmAsBQ_@Sm@i@sAOYi@_@w@[[I{@UMKa@a@c@o@_@_AOc@c@{@{@sAYcA_@iAKYo@mAk@aASg@UeAKKCK@QKa@Oi@Yg@k@w@g@k@s@g@WMm@[m@WUIWSk@W[OBE?KGOYo@a@aAs@cCYiBCq@IA?EQ?[?D}BJoBVcBh@yCHUMi@I[_AkDEY[uAY}Ao@_DNE?C?Az@{AjBeE`@cAvA{DB[B[f@eBNg@RS|@e@h@[VQ^c@^c@POxAsBzAqBbBgBfDyCnCgC~FkFx@u@f@e@\\WtDsC`CwAjB_AfBgAvBkAn@YbCyAz@a@d@Sd@WfAi@n@c@JCIMGS@OPu@KIZe@xBcEdFyIpAkBx@uAxAcC`AoA^i@FY?QHA\\A`A@jAJd@P\\_@NYB_@KoAOOQKQGAOO@a@BUCOEIEAIS}DcBFSDAZ?^EHMDINFfB\\?</t>
   </si>
   <si>
-    <t>ugkyHfpWBDRDJ[LBVi@Kk@AUpC_F}AjDxDaJZ_Ah@gBfCsLbGsYzCgO^_G@aGuA_SXsW\\wO]iWU{Lg@sFeDgMw@wEO_Da@_FJ_Et@{DvB}DtCuEfEkIxGaQhWwl@jOka@zKm[~Nkd@vHkUlKqVjNqi@lDqM~EsLrFsGrIoF`R}KjJcHrGmGpI}L~CkGjBkFnKg\\lByEdAeB|DuDpEiBpEeA|B_AvCo@rFsAbDsAnCkB~EiFlBsC~CkH~HgXtFyNpEmJrGqJfDaE`c@kc@t`@u`@dReRfMsNhJ_MnFcIrEyHrGyL`PgZ`Qa]nIeO~Wsh@jDsF`GoJvCaEbJ_K|GaHdNiNdKaMhTwYfCqDrFaGnKgKhMaMvj@wi@zPyPjRmQ~^m^rV_VvTkQ|JuHlPuLfL}JfLsMxLqQjZyi@bEkH`McRfQaUtE{HbE_JbBeEjF{QfCuNjAoJbAmJhCoU|AkMrAgHpB}HfFwMxD_H~CgE|VcUvX}UpdAo}@hGwE|I}DtLeClGcB~FcCzJyFdIiHhO}L`KqHbE_C|I}ChGmAdH_@~HP|WjD~HjAnQbCxDHbDSlGqAnFyBdEiCvEmEjDqE~DwHlEuJ`HuKvCaDrGkFzFyCnGmBlF}@rFuAjEiB~E{DhKeM|D{DnEsCzEmBp\\cKnRwFdiAq\\vq@cS~V{JnN}FxFaCdIeE`GiEpGcGlOmQxKmN`KgQ|GmP~EsPpFmWtH_a@nIeb@zCsK~FyOxGyOtKcWhH}PzFgN|GcOtFoIfDqDhGqE~FiCbEuAhN{ElBiAzCaD|AsDpA{Hx@}PvCgl@zKowBbEi{@~Auk@lCqbA|IebDtIaaDdQesGzUcuIrRsbH~GudC~IwqC~WghI`Bgi@hAg\\hGslBlLqmD~L{tDxYgzIhUw{GlYqpIbA}WvB}TjDoRzBuJrFuPrI_TfW_o@|Zmu@vm@c{Apu@ijBxUsl@|IsX~CeLrGeXdG{[pEa[pEmd@tE_n@hHw`AtK{vAvNkmB~BmZzH{}@tRcwBdOk`BbEwd@p@{IXiJCcV[oZy@{q@k@gh@IgX^aOHgMo@qRU{REgQr@aSpCc^lDqc@rMyaBpNsfBhEyi@fCc_@p@{SDwIi@qR{@qKqA{JyCaQwF}R_W{x@qN}d@kJ_\\gGeU}J{^oE}MaB_H_BkJkC}Z}Ae]qCip@uF}sAcEibAwA_YiJwh@gLko@_^woBuBqKiBmMeEse@eAcEaBaC{BkAaBEiCpA{DvAma@~LkM`Eo@P@T</t>
-  </si>
-  <si>
     <t>kvqyCeioyNlEoEiK`DwLmZ{g@unAqBagAt^geAhqBmuA|fD_xHj`AaIzr@kQnHaXke@k{@itAqgDgaAifC|DgcA~k@{Pru@qDv[qT`g@{fExb@iiElXkaHlTsiG~mAy_PnnAkrJny@cxFhaAocBl_D_`LxyA{vCby@anAdsHoeLvaGk_JndFy~JdvGwrRz`BkpEndB}_F|IcjAgEqwB@pN{@}_@AwWvGgvFjS_tBrpAqwFdlAchF`{@_sBli@qw@naGc`J|[o_A|OmgCzzAiiWzbCukZrY_yCtSmvBlGsqCgVioGxp@oiRnR{{Ol`AmrWjJecDoJm[}y@eMcNaV`Pel@dFapC`McuBvgAmJhmClA~k@qJldEogE|oTkrVdsAkzAv`EsmHpaBscDdaCguDlC_aAsX}z@oIo}@}BsnBwCwg@t]gSv[hL|e@kVdL{g@kh@iq@_ZogAhXy|@te@grAbWgMp{@}Dh}DorF~vAguBz~B{_AraAcy@d|Bu~E`rBmjAhg@cs@|v@quBniDi{Ch`Bq_Gj`@gmCdfBipF~_B_~BtgAkfBnUwpAbv@ksAl{ByfB|`EapBli@{d@nd@gkAfzBsyBzoCiiEhhA`Bd{@kEpkCetBxrBexDfMe}@xc@y`@pm@GleA{d@zt@a}ArpA_~@jrAgv@`dCijB`o@auA`qEeqAflAoQruBqoBvpCcfB`~AonAz`BgqCtw@m~@pwA}{A~w@auBtoAqqFdgB}cGpYi{B~t@oaBjPkfBdQelCbwCebRdf@e|BfY{mBt^_cEtm@o}Dbm@gwExf@g_CaHauAePml@pI}g@hZirGhH_qCyi@qiCgP_x@uCyxBjN{fBhhAokB~e@srBzAqvCz`@m}DfQmfCrNuxBxgAkxEfwCgpH`bBcjItL_a@~q@c~@j`DuuB`fAinBpq@ibDpYmoClu@su@`s@w_@rYim@~hCskJfx@wgCpg@eaBv|@uoApzEggGbjEseK~n@alBh@}uCne@woCbmDk`J`x@g`C|eB_uNleBacHj`Ba~CryCqfGtuGcxSzhHsrNnpCknBy[hR`OyI~CyAxMoHte@k[lp@m|@fWen@fY}zC`{BymIbo@}_Cbf@yh@fjEg`DnoLohHlxDoaCzeGemClwOm`FtmPobGvgKczEvdIyjEbhEmoB`~A}{@dO_Ja`@jUdO{IvFeD`MuG~PsKdM}HbkA_t@vj@}hARyyFqDihChf@k_B|b@aHvs@`JnwAmEphDnMvpB`r@l\\fb@|Jth@dCO`GwB</t>
   </si>
   <si>
@@ -951,6 +948,35 @@
   </si>
   <si>
     <t>wbrdId{}d@bDuPrCe`AEmu@MapArSogWo|HcarB}wOyb`E{{DoqxFwSqeNz@mgA`E_d@~FyYtM{RnQaOfPiJnj@yl@rj@{l@xuAwaB`xAy`Cxj@geA|m@}_AhV}[pXmTvrAq\\rn@uPr_@}LjNwI|O_Up@cE`@wDf@aL</t>
+  </si>
+  <si>
+    <t>Sydenham</t>
+  </si>
+  <si>
+    <t>_ikyHxoW^h@Ti@dAcCdDoHz@oCFYRoAVmBl@uGH_Ab@sDXqA^gBz@{C`AyBJSfAyALQn@e@`BmAtB}Ax@g@n@c@S_AcAqKRIMkAu@yGgAqLQyCAqBFaGRsTTyHQoNQiMG}CEaAUkDYmBQiAOuAOcCi@a_@BaADw@XkBr@iCjFuLjNe\\fFyLxDaJfCcG~@eCv@aCd@oBZuBPsBH_ALmECgACiAmBaZ_@gHMiGEqWCmMCgYSkAOJHb@n@c@xAm@tBg@fAQdBSlBc@jAc@zAq@t@]jBwA~BmBzByAt@_@fAa@|Ae@hDy@jCw@f@M`Aa@d@Ux@k@`CkBtAgA~@o@h@Wt@Ur@O|@IjB@tBBbAIfBm@j@Y`A[hC_Aj@Mn@EnACjCGlDIjBCv@Eh@Ir@YdD}A`D}A|CeB`CiAlAe@hC}@bCw@bDkAtDiAtBu@fDoA~Ae@zEgAfBYxC[xCS|BI~ACvB?vBFjBF|DVdEn@|A\\~DdAhN~DvGjBdEnAbDjAfBz@hE`ChCfBlBzApFbFxBrBzBzBxBrBjAbAhAz@jMfJzHxFpLtI|AlAdCxA~Ax@jElB|@XbCn@hBZnBZjCZlCJnC@fACxAKhI_A|BOlBElAAbCDlCN`BRnCh@rFfBdA^xBx@BOjA@I|@</t>
+  </si>
+  <si>
+    <t>Redhill</t>
+  </si>
+  <si>
+    <t>TonBridge</t>
+  </si>
+  <si>
+    <t>routing so that we go via sydenham</t>
+  </si>
+  <si>
+    <t>eimwHy{s@GBo@bHF@JyBDw@P_ERqD~@}QxA{YZsGh@yKV{ELcALeBn@oMv@}N~Aq\\t@mOxAqYr@iPv@iWf@kStAmg@v@cZtBmu@~Bqz@fBep@nB_u@bAu^dBaq@z@iY`Cu}@n@uU`@eP|Akh@jDcqAfBcq@zBaw@vCcgApBot@tCqeA~D{xApC_fAvBst@rDsqAtDksAbDmkAnAoc@j@wSl@{Tt@cV~@gYfBwi@rAw_@tAya@z@kXjAq]bAkZb@kOfAm[tAqb@pCuz@|@cZjB}j@l@}NFqBCm@H{BFkCD{BVeHh@}O^iKd@kOFc@JkDJkDZmKnAs_@vAic@bCwt@|DekAjBsk@`@_M\\aJp@uSzAud@hBij@fCcv@tB{p@hByg@zBgp@lCwy@bEamAfAi\\bBeh@`B_g@~Aid@lDkdAdDqbArDoeAlDgeAbIg_CnDcdAt@}SdAqZn@mT`@iM`@sIt@iJ`AsI`AcGhBkJzBuJhCsIhBaF|DwJtCgHpG}OtNa^fDiIpFoMpB}EpJuU~Vkn@vUwk@xNe^xLaZ|Wap@rJaVhCmGzEcMtFsPfB_G~CeL`EiPpA{FxBuKjCeO`CuOnAkJnAaL`AmJ~@}K|@yLvCe`@`D}b@fCy\\`Gew@n@wHn@oIr@mJrGc{@bFgq@~BmZlByVlEaf@xKqmAzEqh@zGst@nCwZxA_ObEwd@p@{IXiJByGGiM[oZ_@s[YgUS}RWiTKgL@_KFgEVyHH{D?kGGwCUeFQsFU{RG_K@gERcI^}H|AyRr@iJlDqc@x@gK`CiZvGgz@|Cg`@lEyi@dCqZhEyi@vAkRn@wK\\iHRqJDwIKmG]cJ]aF]oDqA{JwAuIaAkF_BiGwCsJ{IoYcLk^eDqK[iAoHaVmFcQ}B{I{CkLkByG}E}QsAaFkA{D}@iCcAsCmA_EaB_Hw@iEg@aDi@oE_@eEaAgN}Ae]_AgUqAaZuF}sAcEibAaAoTUoCS_B}@iFkB_KkDmRgLko@_^woBuBqKs@oEu@}Fm@{F}@mKyAiQ[eBi@}Am@gAs@y@gAs@s@Ws@Im@Bk@P}A~@_Ad@{Bp@yCv@sCx@yItCeMvDyH~BqC`A_@JD\\</t>
+  </si>
+  <si>
+    <t>s|vwHbh_@~A^ZN`Ah@`Aj@`@T~@`@tAv@|@V~@NtALvBD`COxCYxAWlAc@|BeA~@i@`BqApAmA~AiBrAkBlBgDz@oBhAaDbAwD|@oE^gCZwCVsDj@yKn@eM~@_RxAeYnB{`@ZwG`A}Q~A{[|@sQtCqk@jA{TdAmTfBa]bAsSpBi`@hCwg@fBo`@bBwZxDat@tDau@zCem@nBi`@vA_WN{Cf@{JjBg_@dEcy@^gJZ{Jb@cMdAe\\dBmg@h@cQTsHj@yOv@ab@n@c_@jAmp@X{P\\yUh@oXTuINyDpCoc@vAiTfAeRnAiR|B{\\xDmm@x@uOt@iPbAoTp@uNrAsY`C_i@xCyn@|Bgg@bBs_@bC{h@fDmt@jIqeBnBed@\\aJpBqi@rAy^dB{`@|Ak[b@qIb@aJhBm^|Bed@vEi`AbAoV|@}Uv@mVj@wMhA{ZhAk[rA_^bAsXdAuXpCmu@bEsgAz@}TJkFBsE@iG?kN?oM?cCCqGCkM?aZA_GIqAa@iF[wFGwC?oH?aLBoA^oDNcCFcDLeCJ}BTeCZsDHaBIAHoJFC</t>
+  </si>
+  <si>
+    <t>{j{xHzsIH}@kAACNND`@PdA^|HjCtDpAxEbBxEjBbBv@|BpAdBlAvAhAnAr@lB|AbBbBzCvCzBxB|UvUtFnF|CdCd@`@z@d@bBbAtKhFnOnH`GlChNpGvE~BbElBrB`AxBbA^PPTLD`ATJDhA^tAn@j@TAJNPCL|BbAdElBx@^|EbCzBtAbAt@~BhB^Zf@d@xCzCdCtCpClDpCjDhC`DlBrCfCrDnC~EzAbC`AtAfDfEhD~DlCfCnBdBxAjAjEvCdBhA`B`AnCtAt@\\`@ZbCbAhBf@rAZ|B\\hBRfAH~BLnDFhNP|DHpMRdMTdLb@vLZfDJtCHxCB`EJ|CHjMd@vCV|Dh@`Dj@nCn@hDhAhAd@fChAbB|@xA|@bBdA|CfChCvBdBfB|AdBlChDbAtAnDpFnCfFfAvBhB~DvErKxF`L|HvOlD|G~ErJfAnBjDxFhFfInIvLdIbKfPxRxLnNtEpFzGzHnPrRzAzAvAvAhH`GtGtEfC|AfBhApEtCdCtBbBfBvBxBjAtA`BvB~C|DrAzAdD~CvDzCvDfCnEhCbCvAhFxCbG`DxSvLrFvCfD|AjEjBbAb@lBx@`Bf@dAZ`@JpEjAzHpBvD`AnIlBjAR`CL~CHhEG|CSnCWzG}@|G{@~HaA`I_ArN}AlKoA|PmBpDc@fGcAtK_BjFk@tDWpBEpA?x@?~@FdBHpALzBZtCp@pCv@pAd@|B`Al@XdB~@`Al@bBjAdDnCfErDnCxBxDrCdFbDfEdCvAv@lDhBjH|D~DvBpKxFnJhF~C|Aj@ZdB|@`Ah@bAf@v@l@^RjB`AbCtAbAl@vAfAr@f@bC|AjCxAj@ZGV</t>
+  </si>
+  <si>
+    <t>Just as the train was whirling through Sydenham, Passepartout suddenly
+uttered a cry of despair. "I forgot to turn off the gas in my room!" “Very well, young man,” returned Mr. Fogg, coolly; “it will burn—at
+your expense.”</t>
   </si>
 </sst>
 </file>
@@ -1007,13 +1033,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1329,16 +1358,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBB965F-3FC4-4AF2-AB82-339457B95038}">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="184.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1403,7 +1432,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -1435,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1467,7 +1496,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -1499,7 +1528,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1514,7 +1543,7 @@
         <v>-0.125685082</v>
       </c>
       <c r="I5" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="J5" t="s">
         <v>224</v>
@@ -1526,114 +1555,120 @@
         <v>0.86458333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
+        <v>304</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>51.125964719999999</v>
+        <v>51.427183374539702</v>
       </c>
       <c r="H6">
-        <v>1.3053179829999999</v>
+        <v>-5.4536527045192601E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="J6" t="s">
-        <v>207</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
+        <v>306</v>
+      </c>
+      <c r="D7" t="s">
+        <v>308</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>51.125201259999997</v>
+        <v>51.240164564094101</v>
       </c>
       <c r="H7">
-        <v>1.3338823660000001</v>
+        <v>-0.16575721130391899</v>
       </c>
       <c r="I7" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="J7" t="s">
-        <v>223</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>50.966805790000002</v>
+        <v>51.191389163886001</v>
       </c>
       <c r="H8">
-        <v>1.849586964</v>
+        <v>0.27084506952123799</v>
       </c>
       <c r="I8" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>50.953189039999998</v>
+        <v>51.125964719999999</v>
       </c>
       <c r="H9">
-        <v>1.8488091230000001</v>
+        <v>1.3053179829999999</v>
       </c>
       <c r="I9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1641,25 +1676,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>49.888201180000003</v>
+        <v>51.125201259999997</v>
       </c>
       <c r="H10">
-        <v>2.3016237199999998</v>
+        <v>1.3338823660000001</v>
       </c>
       <c r="I10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1667,31 +1705,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>48.880978429999999</v>
+        <v>50.966805790000002</v>
       </c>
       <c r="H11">
-        <v>2.355301603</v>
+        <v>1.849586964</v>
       </c>
       <c r="I11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J11" t="s">
-        <v>207</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.30555555555555552</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1699,31 +1731,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>48.844292869999997</v>
+        <v>50.953189039999998</v>
       </c>
       <c r="H12">
-        <v>2.3744559829999998</v>
+        <v>1.8488091230000001</v>
       </c>
       <c r="I12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J12" t="s">
         <v>224</v>
-      </c>
-      <c r="M12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1731,28 +1757,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.201221750000002</v>
+        <v>49.888201180000003</v>
       </c>
       <c r="H13">
-        <v>6.6701635359999996</v>
+        <v>2.3016237199999998</v>
       </c>
       <c r="I13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J13" t="s">
         <v>224</v>
-      </c>
-      <c r="P13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1760,36 +1783,30 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.071736479999998</v>
+        <v>48.880978429999999</v>
       </c>
       <c r="H14">
-        <v>7.6653559939999996</v>
+        <v>2.355301603</v>
       </c>
       <c r="I14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J14" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L14" s="2">
-        <v>0.27430555555555552</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="2">
         <v>0.30555555555555552</v>
       </c>
     </row>
@@ -1798,34 +1815,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>40.633830529999997</v>
+        <v>48.844292869999997</v>
       </c>
       <c r="H15">
-        <v>17.93912263</v>
+        <v>2.3744559829999998</v>
       </c>
       <c r="I15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J15" t="s">
         <v>224</v>
       </c>
-      <c r="K15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P15" t="s">
-        <v>56</v>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1833,31 +1847,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>40.64792989</v>
+        <v>45.201221750000002</v>
       </c>
       <c r="H16">
-        <v>17.962268479999999</v>
+        <v>6.6701635359999996</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J16" t="s">
-        <v>223</v>
-      </c>
-      <c r="M16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.70833333333333337</v>
+        <v>224</v>
+      </c>
+      <c r="P16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1865,31 +1876,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.940127629999999</v>
+        <v>45.071736479999998</v>
       </c>
       <c r="H17">
-        <v>32.561989269999998</v>
+        <v>7.6653559939999996</v>
       </c>
       <c r="I17" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L17" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="M17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.30555555555555552</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1897,25 +1914,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>12.61056585</v>
+        <v>40.633830529999997</v>
       </c>
       <c r="H18">
-        <v>43.330949769999997</v>
+        <v>17.93912263</v>
       </c>
       <c r="I18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J18" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1923,37 +1949,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.791491389999999</v>
+        <v>40.64792989</v>
       </c>
       <c r="H19">
-        <v>44.986226639999998</v>
+        <v>17.962268479999999</v>
       </c>
       <c r="I19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J19" t="s">
         <v>223</v>
       </c>
-      <c r="K19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N19" s="2">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1961,34 +1981,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>18.912939680000001</v>
+        <v>29.940127629999999</v>
       </c>
       <c r="H20">
-        <v>72.825716319999998</v>
+        <v>32.561989269999998</v>
       </c>
       <c r="I20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L20" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1996,31 +2013,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" t="s">
-        <v>273</v>
+        <v>58</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>18.940060169999999</v>
+        <v>12.61056585</v>
       </c>
       <c r="H21">
-        <v>72.793000399999997</v>
+        <v>43.330949769999997</v>
       </c>
       <c r="I21" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
-      </c>
-      <c r="P21" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2028,25 +2039,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>18.939866120000001</v>
+        <v>12.791491389999999</v>
       </c>
       <c r="H22">
-        <v>72.835451090000007</v>
+        <v>44.986226639999998</v>
       </c>
       <c r="I22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2054,37 +2077,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>19.950552219999999</v>
+        <v>18.912939680000001</v>
       </c>
       <c r="H23">
-        <v>73.845942679999993</v>
+        <v>72.825716319999998</v>
       </c>
       <c r="I23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
         <v>61</v>
       </c>
       <c r="L23" s="2">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="M23" t="s">
-        <v>61</v>
+        <v>0.6875</v>
       </c>
       <c r="N23" s="2">
-        <v>0.97916666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2092,34 +2112,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>21.335231189999998</v>
+        <v>18.940060169999999</v>
       </c>
       <c r="H24">
-        <v>76.200120389999995</v>
+        <v>72.793000399999997</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.52083333333333337</v>
+        <v>207</v>
       </c>
       <c r="P24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2127,31 +2144,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.053986009999999</v>
+        <v>18.939866120000001</v>
       </c>
       <c r="H25">
-        <v>81.042807389999993</v>
+        <v>72.835451090000007</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
-      </c>
-      <c r="P25" t="s">
-        <v>67</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2159,25 +2170,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>25.445938760000001</v>
+        <v>19.950552219999999</v>
       </c>
       <c r="H26">
-        <v>81.825272010000006</v>
+        <v>73.845942679999993</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
         <v>224</v>
+      </c>
+      <c r="K26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="M26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2185,37 +2208,34 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>25.327207080000001</v>
+        <v>21.335231189999998</v>
       </c>
       <c r="H27">
-        <v>82.986492580000004</v>
+        <v>76.200120389999995</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
         <v>224</v>
       </c>
-      <c r="K27" t="s">
-        <v>87</v>
-      </c>
       <c r="L27" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="M27" t="s">
-        <v>87</v>
-      </c>
       <c r="P27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2223,40 +2243,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>273</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>22.565813160000001</v>
+        <v>25.053986009999999</v>
       </c>
       <c r="H28">
-        <v>88.369452859999996</v>
+        <v>81.042807389999993</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
-      </c>
-      <c r="K28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="M28" t="s">
-        <v>64</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.45833333333333331</v>
+        <v>225</v>
       </c>
       <c r="P28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2264,25 +2275,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>22.544004730000001</v>
+        <v>25.445938760000001</v>
       </c>
       <c r="H29">
-        <v>88.300067490000004</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>239</v>
+        <v>81.825272010000006</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2290,37 +2301,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1.2877379950000001</v>
+        <v>25.327207080000001</v>
       </c>
       <c r="H30">
-        <v>103.864172</v>
+        <v>82.986492580000004</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L30" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="M30" t="s">
-        <v>99</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.95833333333333337</v>
+        <v>87</v>
+      </c>
+      <c r="P30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2328,37 +2339,40 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>22.300521199999999</v>
+        <v>22.565813160000001</v>
       </c>
       <c r="H31">
-        <v>114.166349</v>
+        <v>88.369452859999996</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="L31" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="M31" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="N31" s="2">
-        <v>0.625</v>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2366,37 +2380,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>31.300917569999999</v>
+        <v>22.544004730000001</v>
       </c>
       <c r="H32">
-        <v>121.7356995</v>
-      </c>
-      <c r="I32" t="s">
-        <v>242</v>
+        <v>88.300067490000004</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="J32" t="s">
         <v>223</v>
-      </c>
-      <c r="K32" t="s">
-        <v>94</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="M32" t="s">
-        <v>94</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2404,28 +2406,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>32.745467609999999</v>
+        <v>1.2877379950000001</v>
       </c>
       <c r="H33">
-        <v>129.867943</v>
+        <v>103.864172</v>
       </c>
       <c r="I33" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J33" t="s">
         <v>223</v>
       </c>
-      <c r="P33" t="s">
-        <v>104</v>
+      <c r="K33" t="s">
+        <v>99</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M33" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2433,31 +2444,37 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>35.465355379999998</v>
+        <v>22.300521199999999</v>
       </c>
       <c r="H34">
-        <v>139.64313720000001</v>
+        <v>114.166349</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J34" t="s">
         <v>223</v>
       </c>
       <c r="K34" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="M34" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.625</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2465,28 +2482,37 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" t="s">
-        <v>280</v>
+        <v>96</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>40.98932774</v>
+        <v>31.300917569999999</v>
       </c>
       <c r="H35">
-        <v>179.98834579999999</v>
+        <v>121.7356995</v>
       </c>
       <c r="I35" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J35" t="s">
-        <v>246</v>
+        <v>223</v>
+      </c>
+      <c r="K35" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="M35" t="s">
+        <v>94</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2494,28 +2520,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>40.98932774</v>
+        <v>32.745467609999999</v>
       </c>
       <c r="H36">
-        <v>-179.98834579999999</v>
+        <v>129.867943</v>
       </c>
       <c r="I36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J36" t="s">
         <v>223</v>
+      </c>
+      <c r="P36" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2523,31 +2549,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>278</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>37.809356899999997</v>
+        <v>35.465355379999998</v>
       </c>
       <c r="H37">
-        <v>-122.4136192</v>
+        <v>139.64313720000001</v>
       </c>
       <c r="I37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J37" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="K37" t="s">
-        <v>92</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0.29166666666666669</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2555,25 +2581,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>279</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>37.79607859</v>
+        <v>40.98932774</v>
       </c>
       <c r="H38">
-        <v>-122.404966</v>
+        <v>179.98834579999999</v>
       </c>
       <c r="I38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J38" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -2581,31 +2610,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>37.797290220000001</v>
+        <v>40.98932774</v>
       </c>
       <c r="H39">
-        <v>-122.4037175</v>
+        <v>-179.98834579999999</v>
       </c>
       <c r="I39" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J39" t="s">
-        <v>207</v>
-      </c>
-      <c r="P39" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -2616,22 +2642,28 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>37.79607859</v>
+        <v>37.809356899999997</v>
       </c>
       <c r="H40">
-        <v>-122.404966</v>
+        <v>-122.4136192</v>
       </c>
       <c r="I40" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J40" t="s">
-        <v>222</v>
+        <v>207</v>
+      </c>
+      <c r="K40" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -2642,31 +2674,22 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>37.786777999999998</v>
+        <v>37.79607859</v>
       </c>
       <c r="H41">
-        <v>-122.30291699999999</v>
+        <v>-122.404966</v>
       </c>
       <c r="I41" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J41" t="s">
-        <v>224</v>
-      </c>
-      <c r="M41" t="s">
-        <v>92</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="P41" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -2674,31 +2697,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
+        <v>300</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>38.58538557</v>
+        <v>37.797290220000001</v>
       </c>
       <c r="H42">
-        <v>-121.5041418</v>
+        <v>-122.4037175</v>
       </c>
       <c r="I42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J42" t="s">
-        <v>224</v>
-      </c>
-      <c r="M42" t="s">
-        <v>116</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="P42" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -2706,28 +2729,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>38.79147845</v>
+        <v>37.79607859</v>
       </c>
       <c r="H43">
-        <v>-121.2373181</v>
+        <v>-122.404966</v>
       </c>
       <c r="I43" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J43" t="s">
-        <v>224</v>
-      </c>
-      <c r="M43" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -2735,28 +2755,34 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>38.903751470000003</v>
+        <v>37.786777999999998</v>
       </c>
       <c r="H44">
-        <v>-121.08330599999999</v>
+        <v>-122.30291699999999</v>
       </c>
       <c r="I44" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J44" t="s">
         <v>224</v>
       </c>
       <c r="M44" t="s">
-        <v>116</v>
+        <v>92</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P44" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -2764,28 +2790,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>39.09991325</v>
+        <v>38.58538557</v>
       </c>
       <c r="H45">
-        <v>-120.95294850000001</v>
+        <v>-121.5041418</v>
       </c>
       <c r="I45" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J45" t="s">
         <v>224</v>
       </c>
       <c r="M45" t="s">
         <v>116</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -2793,31 +2822,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>39.301723430000003</v>
+        <v>38.79147845</v>
       </c>
       <c r="H46">
-        <v>-120.5484648</v>
+        <v>-121.2373181</v>
       </c>
       <c r="I46" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J46" t="s">
         <v>224</v>
       </c>
       <c r="M46" t="s">
         <v>116</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -2825,34 +2851,28 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>39.468238040000003</v>
+        <v>38.903751470000003</v>
       </c>
       <c r="H47">
-        <v>-120.00328450000001</v>
+        <v>-121.08330599999999</v>
       </c>
       <c r="I47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J47" t="s">
         <v>224</v>
       </c>
       <c r="M47" t="s">
         <v>116</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="P47" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -2860,37 +2880,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>39.528815690000002</v>
+        <v>39.09991325</v>
       </c>
       <c r="H48">
-        <v>-119.8115833</v>
+        <v>-120.95294850000001</v>
       </c>
       <c r="I48" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J48" t="s">
         <v>224</v>
       </c>
-      <c r="K48" t="s">
-        <v>116</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0.5</v>
-      </c>
       <c r="M48" t="s">
         <v>116</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0.51388888888888895</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -2898,34 +2909,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>40.836537577374102</v>
+        <v>39.301723430000003</v>
       </c>
       <c r="H49">
-        <v>-115.750518054894</v>
+        <v>-120.5484648</v>
       </c>
       <c r="I49" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="J49" t="s">
         <v>224</v>
       </c>
       <c r="M49" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N49" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P49" t="s">
-        <v>122</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -2933,31 +2941,34 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
-        <v>41.343165880000001</v>
+        <v>39.468238040000003</v>
       </c>
       <c r="H50">
-        <v>-114.04117840000001</v>
+        <v>-120.00328450000001</v>
       </c>
       <c r="I50" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="J50" t="s">
         <v>224</v>
       </c>
       <c r="M50" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N50" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.375</v>
+      </c>
+      <c r="P50" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -2965,31 +2976,37 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>41.705300119999997</v>
+        <v>39.528815690000002</v>
       </c>
       <c r="H51">
-        <v>-112.8580687</v>
+        <v>-119.8115833</v>
       </c>
       <c r="I51" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="J51" t="s">
         <v>224</v>
       </c>
+      <c r="K51" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.5</v>
+      </c>
       <c r="M51" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N51" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.51388888888888895</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -2997,37 +3014,34 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>41.224769950000002</v>
+        <v>40.836537577374102</v>
       </c>
       <c r="H52">
-        <v>-111.9678696</v>
+        <v>-115.750518054894</v>
       </c>
       <c r="I52" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="J52" t="s">
         <v>224</v>
       </c>
-      <c r="K52" t="s">
+      <c r="M52" t="s">
         <v>124</v>
       </c>
-      <c r="L52" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M52" t="s">
-        <v>134</v>
-      </c>
       <c r="N52" s="2">
-        <v>0.59027777777777779</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P52" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3035,37 +3049,31 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>40.751594570000002</v>
+        <v>41.343165880000001</v>
       </c>
       <c r="H53">
-        <v>-111.8931752</v>
+        <v>-114.04117840000001</v>
       </c>
       <c r="I53" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="J53" t="s">
         <v>224</v>
       </c>
-      <c r="K53" t="s">
+      <c r="M53" t="s">
         <v>124</v>
       </c>
-      <c r="L53" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="M53" t="s">
-        <v>134</v>
-      </c>
       <c r="N53" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3073,34 +3081,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>41.224769950000002</v>
+        <v>41.705300119999997</v>
       </c>
       <c r="H54">
-        <v>-111.9678696</v>
+        <v>-112.8580687</v>
       </c>
       <c r="I54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J54" t="s">
         <v>224</v>
       </c>
-      <c r="L54" s="2">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="M54" t="s">
         <v>134</v>
       </c>
       <c r="N54" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3108,34 +3113,37 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>41.323085499999998</v>
+        <v>41.224769950000002</v>
       </c>
       <c r="H55">
-        <v>-110.3884314</v>
+        <v>-111.9678696</v>
       </c>
       <c r="I55" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="J55" t="s">
         <v>224</v>
       </c>
+      <c r="K55" t="s">
+        <v>124</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="M55" t="s">
         <v>134</v>
       </c>
       <c r="N55" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="P55" t="s">
-        <v>130</v>
+        <v>0.59027777777777779</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3143,28 +3151,37 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>41.524545740000001</v>
+        <v>40.751594570000002</v>
       </c>
       <c r="H56">
-        <v>-109.46317740000001</v>
+        <v>-111.8931752</v>
       </c>
       <c r="I56" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="J56" t="s">
         <v>224</v>
       </c>
+      <c r="K56" t="s">
+        <v>124</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0.625</v>
+      </c>
       <c r="M56" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3172,34 +3189,34 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>41.784444929999999</v>
+        <v>41.224769950000002</v>
       </c>
       <c r="H57">
-        <v>-107.24891909999999</v>
+        <v>-111.9678696</v>
       </c>
       <c r="I57" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J57" t="s">
         <v>224</v>
       </c>
+      <c r="L57" s="2">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="M57" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N57" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="P57" t="s">
-        <v>136</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3207,28 +3224,34 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" t="s">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>41.88152865</v>
+        <v>41.323085499999998</v>
       </c>
       <c r="H58">
-        <v>-106.1531056</v>
+        <v>-110.3884314</v>
       </c>
       <c r="I58" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J58" t="s">
         <v>224</v>
+      </c>
+      <c r="M58" t="s">
+        <v>134</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3236,25 +3259,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>40.989298429999998</v>
+        <v>41.524545740000001</v>
       </c>
       <c r="H59">
-        <v>-102.2592595</v>
+        <v>-109.46317740000001</v>
       </c>
       <c r="I59" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J59" t="s">
         <v>224</v>
+      </c>
+      <c r="M59" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3262,28 +3288,34 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>41.150389680000004</v>
+        <v>41.784444929999999</v>
       </c>
       <c r="H60">
-        <v>-100.823742</v>
+        <v>-107.24891909999999</v>
       </c>
       <c r="I60" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J60" t="s">
         <v>224</v>
       </c>
+      <c r="M60" t="s">
+        <v>132</v>
+      </c>
       <c r="N60" s="2">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P60" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3291,34 +3323,28 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>40.717989670000001</v>
+        <v>41.88152865</v>
       </c>
       <c r="H61">
-        <v>-99.376786659999993</v>
+        <v>-106.1531056</v>
       </c>
       <c r="I61" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="J61" t="s">
         <v>224</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="P61" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -3326,31 +3352,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>40.68954566</v>
+        <v>40.989298429999998</v>
       </c>
       <c r="H62">
-        <v>-99.151633189999998</v>
+        <v>-102.2592595</v>
       </c>
       <c r="I62" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J62" t="s">
         <v>224</v>
-      </c>
-      <c r="P62" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -3358,31 +3378,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>40.70062514</v>
+        <v>41.150389680000004</v>
       </c>
       <c r="H63">
-        <v>-99.083794190000006</v>
+        <v>-100.823742</v>
       </c>
       <c r="I63" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J63" t="s">
-        <v>253</v>
-      </c>
-      <c r="P63" t="s">
-        <v>162</v>
+        <v>224</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0.375</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -3390,28 +3407,34 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D64" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>40.499340629999999</v>
+        <v>40.717989670000001</v>
       </c>
       <c r="H64">
-        <v>-98.947806420000006</v>
+        <v>-99.376786659999993</v>
       </c>
       <c r="I64" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J64" t="s">
-        <v>253</v>
+        <v>224</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P64" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -3419,31 +3442,31 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="D65" t="s">
+        <v>166</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>40.70062514</v>
+        <v>40.68954566</v>
       </c>
       <c r="H65">
-        <v>-99.083794190000006</v>
+        <v>-99.151633189999998</v>
       </c>
       <c r="I65" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J65" t="s">
-        <v>254</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0.33333333333333331</v>
+        <v>224</v>
       </c>
       <c r="P65" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -3451,31 +3474,31 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="D66" t="s">
+        <v>271</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>41.249588420000002</v>
+        <v>40.70062514</v>
       </c>
       <c r="H66">
-        <v>-95.877384410000005</v>
+        <v>-99.083794190000006</v>
       </c>
       <c r="I66" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J66" t="s">
-        <v>224</v>
-      </c>
-      <c r="L66" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0.54166666666666663</v>
+        <v>252</v>
+      </c>
+      <c r="P66" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -3483,34 +3506,28 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>172</v>
+      </c>
+      <c r="D67" t="s">
+        <v>173</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>41.76661841</v>
+        <v>40.499340629999999</v>
       </c>
       <c r="H67">
-        <v>-87.772756349999995</v>
+        <v>-98.947806420000006</v>
       </c>
       <c r="I67" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J67" t="s">
-        <v>224</v>
-      </c>
-      <c r="K67" t="s">
-        <v>174</v>
-      </c>
-      <c r="L67" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M67" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -3518,34 +3535,31 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>40.741918419999998</v>
+        <v>40.70062514</v>
       </c>
       <c r="H68">
-        <v>-74.00920352</v>
+        <v>-99.083794190000006</v>
       </c>
       <c r="I68" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="J68" t="s">
-        <v>224</v>
-      </c>
-      <c r="K68" t="s">
-        <v>175</v>
-      </c>
-      <c r="L68" s="2">
-        <v>0.96875</v>
+        <v>253</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P68" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -3553,37 +3567,31 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
-      </c>
-      <c r="E69" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>40.722712340000001</v>
+        <v>41.249588420000002</v>
       </c>
       <c r="H69">
-        <v>-73.999477170000006</v>
+        <v>-95.877384410000005</v>
       </c>
       <c r="I69" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="J69" t="s">
         <v>224</v>
       </c>
-      <c r="K69" t="s">
-        <v>175</v>
-      </c>
-      <c r="M69" t="s">
-        <v>179</v>
+      <c r="L69" s="2">
+        <v>0.54166666666666663</v>
       </c>
       <c r="N69" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -3591,34 +3599,34 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>40.702204070000001</v>
+        <v>41.76661841</v>
       </c>
       <c r="H70">
-        <v>-74.017335790000004</v>
+        <v>-87.772756349999995</v>
       </c>
       <c r="I70" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="J70" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="K70" t="s">
+        <v>174</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0.66666666666666663</v>
       </c>
       <c r="M70" t="s">
-        <v>179</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0.375</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -3626,31 +3634,34 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>45.151021049999997</v>
+        <v>40.741918419999998</v>
       </c>
       <c r="H71">
-        <v>-52.584263649999997</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>282</v>
+        <v>-74.00920352</v>
+      </c>
+      <c r="I71" t="s">
+        <v>261</v>
       </c>
       <c r="J71" t="s">
-        <v>223</v>
-      </c>
-      <c r="M71" t="s">
-        <v>184</v>
+        <v>224</v>
+      </c>
+      <c r="K71" t="s">
+        <v>175</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0.96875</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -3658,31 +3669,37 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="E72" t="s">
+        <v>178</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>51.849740019999999</v>
+        <v>40.722712340000001</v>
       </c>
       <c r="H72">
-        <v>-8.2937359520000005</v>
+        <v>-73.999477170000006</v>
       </c>
       <c r="I72" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J72" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K72" t="s">
-        <v>188</v>
-      </c>
-      <c r="L72" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>175</v>
+      </c>
+      <c r="M72" t="s">
+        <v>179</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -3690,31 +3707,34 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="D73" t="s">
+        <v>181</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>51.848919930000001</v>
+        <v>40.702204070000001</v>
       </c>
       <c r="H73">
-        <v>-8.3003966289999997</v>
+        <v>-74.017335790000004</v>
       </c>
       <c r="I73" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="J73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M73" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N73" s="2">
-        <v>6.25E-2</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -3722,25 +3742,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="D74" t="s">
+        <v>270</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>53.346397869999997</v>
+        <v>45.151021049999997</v>
       </c>
       <c r="H74">
-        <v>-6.2929345720000001</v>
-      </c>
-      <c r="I74" t="s">
-        <v>266</v>
+        <v>-52.584263649999997</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="J74" t="s">
-        <v>207</v>
+        <v>223</v>
+      </c>
+      <c r="M74" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -3748,25 +3774,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>53.34531363</v>
+        <v>51.849740019999999</v>
       </c>
       <c r="H75">
-        <v>-6.1959623209999997</v>
+        <v>-8.2937359520000005</v>
       </c>
       <c r="I75" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="J75" t="s">
-        <v>223</v>
+        <v>207</v>
+      </c>
+      <c r="K75" t="s">
+        <v>188</v>
+      </c>
+      <c r="L75" s="2">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -3774,34 +3806,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>53.404325180000001</v>
+        <v>51.848919930000001</v>
       </c>
       <c r="H76">
-        <v>-2.9979711490000001</v>
+        <v>-8.3003966289999997</v>
       </c>
       <c r="I76" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J76" t="s">
-        <v>207</v>
-      </c>
-      <c r="K76" t="s">
-        <v>188</v>
-      </c>
-      <c r="L76" s="2">
-        <v>0.4861111111111111</v>
+        <v>224</v>
       </c>
       <c r="M76" t="s">
         <v>188</v>
+      </c>
+      <c r="N76" s="2">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -3809,34 +3838,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>53.408788889999997</v>
+        <v>53.346397869999997</v>
       </c>
       <c r="H77">
-        <v>-2.9943114579999999</v>
+        <v>-6.2929345720000001</v>
       </c>
       <c r="I77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J77" t="s">
         <v>207</v>
-      </c>
-      <c r="K77" t="s">
-        <v>192</v>
-      </c>
-      <c r="M77" t="s">
-        <v>192</v>
-      </c>
-      <c r="N77" s="2">
-        <v>0.60625000000000007</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -3844,37 +3864,25 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>53.407535950000003</v>
+        <v>53.34531363</v>
       </c>
       <c r="H78">
-        <v>-2.9770824650000001</v>
+        <v>-6.1959623209999997</v>
       </c>
       <c r="I78" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="J78" t="s">
-        <v>224</v>
-      </c>
-      <c r="K78" t="s">
-        <v>188</v>
-      </c>
-      <c r="L78" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="M78" t="s">
-        <v>188</v>
-      </c>
-      <c r="N78" s="2">
-        <v>0.625</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -3882,31 +3890,34 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>51.529333010000002</v>
+        <v>53.404325180000001</v>
       </c>
       <c r="H79">
-        <v>-0.13383476599999999</v>
+        <v>-2.9979711490000001</v>
       </c>
       <c r="I79" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J79" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="K79" t="s">
         <v>188</v>
       </c>
       <c r="L79" s="2">
-        <v>0.87152777777777779</v>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="M79" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -3914,61 +3925,166 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>51.51077128</v>
+        <v>53.408788889999997</v>
       </c>
       <c r="H80">
-        <v>-0.139807761</v>
+        <v>-2.9943114579999999</v>
       </c>
       <c r="I80" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="J80" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K80" t="s">
+        <v>192</v>
+      </c>
+      <c r="M80" t="s">
+        <v>192</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0.60625000000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>53.407535950000003</v>
+      </c>
+      <c r="H81">
+        <v>-2.9770824650000001</v>
+      </c>
+      <c r="I81" t="s">
+        <v>268</v>
+      </c>
+      <c r="J81" t="s">
+        <v>224</v>
+      </c>
+      <c r="K81" t="s">
+        <v>188</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="M81" t="s">
+        <v>188</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
+        <v>193</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>51.529333010000002</v>
+      </c>
+      <c r="H82">
+        <v>-0.13383476599999999</v>
+      </c>
+      <c r="I82" t="s">
+        <v>269</v>
+      </c>
+      <c r="J82" t="s">
+        <v>222</v>
+      </c>
+      <c r="K82" t="s">
+        <v>188</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0.87152777777777779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>51.51077128</v>
+      </c>
+      <c r="H83">
+        <v>-0.139807761</v>
+      </c>
+      <c r="I83" t="s">
+        <v>210</v>
+      </c>
+      <c r="J83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
         <v>4</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
         <v>51.506637789999999</v>
       </c>
-      <c r="H81">
+      <c r="H84">
         <v>-0.13347603699999999</v>
       </c>
-      <c r="J81" t="s">
-        <v>246</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="J84" t="s">
+        <v>245</v>
+      </c>
+      <c r="K84" t="s">
         <v>194</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L84" s="1">
         <v>0.87496527777777777</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I71" r:id="rId1" xr:uid="{586F112A-8824-4754-824F-521D3F05A989}"/>
-    <hyperlink ref="I29" r:id="rId2" display="ivqhCka}yOoYjCwc@xb@su@dbFoAp_Brf@xYjhAa@zbAkZ`m@bHhRzh@xVt~BxPnz@xkAvkA|zB~cChU`gBhTvuCjbAtcApqBuPrbByeAzhA_k@`x@oFjjAd}@|gA~qCbh@df@pvBjb@`~DtAhyCPhlHjnAdeGdwBp{@iCx^qd@~Msp@s@wwAOmnA|IwbBx^}sBru@k|Art@_bAvpA{dAhaFibC|rDiYjjBzRl`Bx`@byCbyA|_XrwPn|v@x``@`mZ~sH|m\\y{DbeiOwrsFxxgGasvBtokAkcb@zyuA{}f@xbhA{o`@fgdAms\\`uiYok_Il}fd@yyph@lk~MiecJ~`uCmmbFv}yCwpqEl`G_{KhhCawMnuEqzw@fgI{p|@{kE{vL}gAmc@kuD~j@__E`@eMiNQyeAB{Hc@gDyGoA" xr:uid="{3A5DFEE7-ACE5-4928-B8E9-E316BFC00DEB}"/>
+    <hyperlink ref="I74" r:id="rId1" xr:uid="{586F112A-8824-4754-824F-521D3F05A989}"/>
+    <hyperlink ref="I32" r:id="rId2" display="ivqhCka}yOoYjCwc@xb@su@dbFoAp_Brf@xYjhAa@zbAkZ`m@bHhRzh@xVt~BxPnz@xkAvkA|zB~cChU`gBhTvuCjbAtcApqBuPrbByeAzhA_k@`x@oFjjAd}@|gA~qCbh@df@pvBjb@`~DtAhyCPhlHjnAdeGdwBp{@iCx^qd@~Msp@s@wwAOmnA|IwbBx^}sBru@k|Art@_bAvpA{dAhaFibC|rDiYjjBzRl`Bx`@byCbyA|_XrwPn|v@x``@`mZ~sH|m\\y{DbeiOwrsFxxgGasvBtokAkcb@zyuA{}f@xbhA{o`@fgdAms\\`uiYok_Il}fd@yyph@lk~MiecJ~`uCmmbFv}yCwpqEl`G_{KhhCawMnuEqzw@fgI{p|@{kE{vL}gAmc@kuD~j@__E`@eMiNQyeAB{Hc@gDyGoA" xr:uid="{3A5DFEE7-ACE5-4928-B8E9-E316BFC00DEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
